--- a/biology/Botanique/Tordylium_maximum/Tordylium_maximum.xlsx
+++ b/biology/Botanique/Tordylium_maximum/Tordylium_maximum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tordyle élevé
 Tordylium maximum est une espèce de plantes herbacées de la famille des Apiaceae (Ombellifères).
@@ -512,7 +524,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tordylium maximum est une espèce originaire du sud de l'Europe et d'Europe centrale. Introduite en Belgique, en Allemagne et Suisse, elle croît dans les endroits secs et ensoleillés, dans les champs cultivés et les vignes, le long des routes et autoroutes, et dans les lieux incultes. Elle fleurit en fin de printemps et en été.</t>
         </is>
@@ -542,11 +556,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Tordylium maximum a été décrite par le naturaliste suédois Carl von Linné en 1753[1].
-Noms vernaculaires
-Tordyle élevé
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Tordylium maximum a été décrite par le naturaliste suédois Carl von Linné en 1753.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tordylium_maximum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tordylium_maximum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tordyle élevé
 Tordyle majeur</t>
         </is>
       </c>
